--- a/Documents/Testing/LocationTriggerTestData.xlsx
+++ b/Documents/Testing/LocationTriggerTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horse\source\repos\GPSLocationAssitant\GPSLocationAssitant\Documents\Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horse\source\repos\LocationTriggering\Documents\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB68C8E6-7163-43A6-9CF6-4BD58A54FA58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1488C64E-8FD7-4549-A481-F4E16D37CF68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15240" yWindow="6795" windowWidth="28800" windowHeight="15435" xr2:uid="{797AC6ED-1CCE-4E87-8054-17263EE71037}"/>
+    <workbookView xWindow="38745" yWindow="5385" windowWidth="28800" windowHeight="15435" xr2:uid="{797AC6ED-1CCE-4E87-8054-17263EE71037}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7094B0-C1F8-4EDD-B1A4-435B110CB85B}">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,6 +838,14 @@
       <c r="H17">
         <v>140.048927192435</v>
       </c>
+      <c r="J17">
+        <f>(J13+J14)/2</f>
+        <v>35.85384020643415</v>
+      </c>
+      <c r="K17">
+        <f>(K13+K14)/2</f>
+        <v>139.53351185815148</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -921,6 +929,14 @@
       <c r="B22">
         <v>-7.35986151769995</v>
       </c>
+      <c r="D22">
+        <f>(D18+D19)/2</f>
+        <v>55.009439020873799</v>
+      </c>
+      <c r="E22">
+        <f>(E18+E19)/2</f>
+        <v>-7.3152591383046497</v>
+      </c>
       <c r="G22">
         <v>36.182311529764</v>
       </c>
@@ -1101,7 +1117,7 @@
         <v>-57.078639439400902</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>54.999332455223403</v>
       </c>
@@ -1114,8 +1130,16 @@
       <c r="H33">
         <v>-49.5930342846125</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <f>(J29+J30)/2</f>
+        <v>-22.719415445436749</v>
+      </c>
+      <c r="K33">
+        <f>(K29+K30)/2</f>
+        <v>-58.606994682141448</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>55.008209410292501</v>
       </c>
@@ -1129,7 +1153,7 @@
         <v>-48.181220236276303</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>55.016697214464998</v>
       </c>
@@ -1143,7 +1167,7 @@
         <v>-45.6878997223045</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>55.019943904511102</v>
       </c>
@@ -1157,7 +1181,7 @@
         <v>-38.858882777347702</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>55.025284940686603</v>
       </c>
@@ -1171,7 +1195,7 @@
         <v>-35.662040106646501</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>55.032331084096803</v>
       </c>
@@ -1185,7 +1209,7 @@
         <v>-32.367389216382399</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>55.0404079710964</v>
       </c>
@@ -1199,7 +1223,7 @@
         <v>-32.749401388085197</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>55.044387407730603</v>
       </c>
@@ -1213,7 +1237,7 @@
         <v>-40.802980865988197</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>55.040278527754502</v>
       </c>
@@ -1227,7 +1251,7 @@
         <v>-48.958130904250403</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G42">
         <v>8.5209607847953297</v>
       </c>
@@ -1235,7 +1259,7 @@
         <v>-53.210094404006199</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -1249,7 +1273,7 @@
         <v>-59.078407800851402</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
@@ -1272,7 +1296,7 @@
         <v>-65.314213717387005</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>64.992034304341402</v>
       </c>
@@ -1297,7 +1321,7 @@
         <v>-75.720884567253194</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>64.149914979593703</v>
       </c>
@@ -1322,7 +1346,7 @@
         <v>-81.255820359394505</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>63.0872759021306</v>
       </c>
@@ -1344,7 +1368,7 @@
         <v>-83.671598628876794</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>63.097931609877101</v>
       </c>
@@ -1581,6 +1605,16 @@
       </c>
       <c r="H63">
         <v>-7.3242022106783198</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J64">
+        <f>(J60+J61)/2</f>
+        <v>54.994051906058644</v>
+      </c>
+      <c r="K64">
+        <f>(K60+K61)/2</f>
+        <v>-7.3228584739672993</v>
       </c>
     </row>
   </sheetData>
